--- a/medicine/Pharmacie/Pipéracilline/Pipéracilline.xlsx
+++ b/medicine/Pharmacie/Pipéracilline/Pipéracilline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pip%C3%A9racilline</t>
+          <t>Pipéracilline</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La pipéracilline est une uréidopénicilline relativement évoluée active contre plusieurs bacilles à Gram négatif. On l'emploie, entre autres, contre les entérobactéries, et en combinaison avec d'autres antibiotiques, contre Pseudomonas aeruginosa (mais aussi Enterobacter, Klebsiella, Serratia) et certains germes anaérobies tels Bacteroides fragilis.
-Elle a été découverte en 1976 par des chercheurs japonais[3].
+Elle a été découverte en 1976 par des chercheurs japonais.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pip%C3%A9racilline</t>
+          <t>Pipéracilline</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Pipéracilline et tazobactam</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La pipéracilline est fréquemment employée en combinaison avec un inhibiteur des β-lactamases, le tazobactam (sous le surnom piptazo). Ce mélange a un spectre très large, incluant entièrement celui de l'association amoxicilline + acide clavulanique, entre autres contre Haemophilus influenzae et Moraxella, et est extrêmement efficace contre les entérocoques.
 </t>
